--- a/resources/dataframes_all_students_formatted.xlsx
+++ b/resources/dataframes_all_students_formatted.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cdpet\Documents\Post School Coursework\UCSD Data Science Bootcamp\Module Challenges\module 4 pandas - school district analysis\school-district-analysis-pandas\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9861DE1-4A86-403A-B440-85A1B4A30F19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83B85B2D-7068-480F-A68E-07C96A1A341C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-18570" yWindow="3225" windowWidth="10230" windowHeight="10005" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="District Summary" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="145">
   <si>
     <t>Total Schools</t>
   </si>
@@ -66,15 +66,6 @@
     <t>81.9</t>
   </si>
   <si>
-    <t>75</t>
-  </si>
-  <si>
-    <t>86</t>
-  </si>
-  <si>
-    <t>65</t>
-  </si>
-  <si>
     <t>School Type</t>
   </si>
   <si>
@@ -408,55 +399,70 @@
     <t>81.6</t>
   </si>
   <si>
-    <t>93</t>
-  </si>
-  <si>
-    <t>87</t>
-  </si>
-  <si>
-    <t>73</t>
-  </si>
-  <si>
-    <t>66</t>
-  </si>
-  <si>
-    <t>97</t>
-  </si>
-  <si>
-    <t>84</t>
-  </si>
-  <si>
-    <t>81</t>
-  </si>
-  <si>
-    <t>90</t>
-  </si>
-  <si>
-    <t>63</t>
-  </si>
-  <si>
-    <t>54</t>
-  </si>
-  <si>
-    <t>94</t>
-  </si>
-  <si>
-    <t>70</t>
-  </si>
-  <si>
-    <t>96</t>
-  </si>
-  <si>
-    <t>83</t>
-  </si>
-  <si>
-    <t>91</t>
-  </si>
-  <si>
-    <t>58</t>
-  </si>
-  <si>
-    <t>67</t>
+    <t>75.0</t>
+  </si>
+  <si>
+    <t>85.8</t>
+  </si>
+  <si>
+    <t>65.2</t>
+  </si>
+  <si>
+    <t>93.5</t>
+  </si>
+  <si>
+    <t>96.6</t>
+  </si>
+  <si>
+    <t>90.4</t>
+  </si>
+  <si>
+    <t>87.1</t>
+  </si>
+  <si>
+    <t>92.7</t>
+  </si>
+  <si>
+    <t>73.5</t>
+  </si>
+  <si>
+    <t>62.9</t>
+  </si>
+  <si>
+    <t>66.2</t>
+  </si>
+  <si>
+    <t>81.1</t>
+  </si>
+  <si>
+    <t>53.5</t>
+  </si>
+  <si>
+    <t>93.6</t>
+  </si>
+  <si>
+    <t>96.1</t>
+  </si>
+  <si>
+    <t>89.9</t>
+  </si>
+  <si>
+    <t>96.8</t>
+  </si>
+  <si>
+    <t>90.6</t>
+  </si>
+  <si>
+    <t>70.0</t>
+  </si>
+  <si>
+    <t>58.3</t>
+  </si>
+  <si>
+    <t>66.5</t>
+  </si>
+  <si>
+    <t>53.7</t>
   </si>
 </sst>
 </file>
@@ -1228,13 +1234,13 @@
         <v>11</v>
       </c>
       <c r="G2" s="15" t="s">
-        <v>12</v>
+        <v>123</v>
       </c>
       <c r="H2" s="15" t="s">
-        <v>13</v>
+        <v>124</v>
       </c>
       <c r="I2" s="16" t="s">
-        <v>14</v>
+        <v>125</v>
       </c>
     </row>
     <row r="3" spans="1:9" s="2" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1284,16 +1290,16 @@
     <row r="1" spans="1:13" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4"/>
       <c r="B1" s="4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>3</v>
@@ -1316,19 +1322,19 @@
     </row>
     <row r="2" spans="1:13" s="2" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C2" s="9">
         <v>4976</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F2" s="17">
         <v>77.04843247588424</v>
@@ -1351,19 +1357,19 @@
     </row>
     <row r="3" spans="1:13" s="2" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="19" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C3" s="20">
         <v>1858</v>
       </c>
       <c r="D3" s="20" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E3" s="20" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F3" s="21">
         <v>83.061894510226054</v>
@@ -1386,19 +1392,19 @@
     </row>
     <row r="4" spans="1:13" s="2" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="23" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C4" s="24">
         <v>2949</v>
       </c>
       <c r="D4" s="24" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E4" s="24" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F4" s="25">
         <v>76.711766700576462</v>
@@ -1421,19 +1427,19 @@
     </row>
     <row r="5" spans="1:13" s="2" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="19" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C5" s="20">
         <v>2739</v>
       </c>
       <c r="D5" s="20" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E5" s="20" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F5" s="21">
         <v>77.102592186929542</v>
@@ -1456,19 +1462,19 @@
     </row>
     <row r="6" spans="1:13" s="2" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="23" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C6" s="24">
         <v>1468</v>
       </c>
       <c r="D6" s="24" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E6" s="24" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F6" s="25">
         <v>83.351498637602177</v>
@@ -1491,19 +1497,19 @@
     </row>
     <row r="7" spans="1:13" s="2" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="19" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C7" s="20">
         <v>4635</v>
       </c>
       <c r="D7" s="20" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E7" s="20" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F7" s="21">
         <v>77.289751887810141</v>
@@ -1526,19 +1532,19 @@
     </row>
     <row r="8" spans="1:13" s="2" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="23" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B8" s="24" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C8" s="24">
         <v>427</v>
       </c>
       <c r="D8" s="24" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E8" s="24" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F8" s="25">
         <v>83.803278688524586</v>
@@ -1561,19 +1567,19 @@
     </row>
     <row r="9" spans="1:13" s="2" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="19" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C9" s="20">
         <v>2917</v>
       </c>
       <c r="D9" s="20" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E9" s="20" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F9" s="21">
         <v>76.629413781282139</v>
@@ -1596,19 +1602,19 @@
     </row>
     <row r="10" spans="1:13" s="2" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="23" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B10" s="24" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C10" s="24">
         <v>4761</v>
       </c>
       <c r="D10" s="24" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E10" s="24" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F10" s="25">
         <v>77.072463768115938</v>
@@ -1631,19 +1637,19 @@
     </row>
     <row r="11" spans="1:13" s="2" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="19" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C11" s="20">
         <v>962</v>
       </c>
       <c r="D11" s="20" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E11" s="20" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F11" s="21">
         <v>83.839916839916839</v>
@@ -1666,19 +1672,19 @@
     </row>
     <row r="12" spans="1:13" s="2" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="23" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B12" s="24" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C12" s="24">
         <v>3999</v>
       </c>
       <c r="D12" s="24" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E12" s="24" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F12" s="25">
         <v>76.842710677669416</v>
@@ -1701,19 +1707,19 @@
     </row>
     <row r="13" spans="1:13" s="2" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="19" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C13" s="20">
         <v>1761</v>
       </c>
       <c r="D13" s="20" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E13" s="20" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="F13" s="21">
         <v>83.359454855195906</v>
@@ -1736,19 +1742,19 @@
     </row>
     <row r="14" spans="1:13" s="2" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="27" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B14" s="28" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C14" s="28">
         <v>1635</v>
       </c>
       <c r="D14" s="28" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E14" s="28" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F14" s="29">
         <v>83.418348623853205</v>
@@ -1771,19 +1777,19 @@
     </row>
     <row r="15" spans="1:13" s="2" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" s="20" t="s">
         <v>33</v>
-      </c>
-      <c r="B15" s="20" t="s">
-        <v>36</v>
       </c>
       <c r="C15" s="20">
         <v>2283</v>
       </c>
       <c r="D15" s="20" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E15" s="20" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F15" s="21">
         <v>83.274200613228203</v>
@@ -1806,19 +1812,19 @@
     </row>
     <row r="16" spans="1:13" s="2" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="31" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B16" s="32" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C16" s="32">
         <v>1800</v>
       </c>
       <c r="D16" s="32" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E16" s="32" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="F16" s="33">
         <v>83.682222222222222</v>
@@ -1872,16 +1878,16 @@
     <row r="1" spans="1:10" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4"/>
       <c r="B1" s="4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>3</v>
@@ -1901,19 +1907,19 @@
     </row>
     <row r="2" spans="1:10" s="2" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C2" s="9">
         <v>1858</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F2" s="17">
         <v>83.061894510226054</v>
@@ -1933,19 +1939,19 @@
     </row>
     <row r="3" spans="1:10" s="2" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="27" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B3" s="28" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C3" s="28">
         <v>1635</v>
       </c>
       <c r="D3" s="28" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E3" s="28" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F3" s="29">
         <v>83.418348623853205</v>
@@ -1965,19 +1971,19 @@
     </row>
     <row r="4" spans="1:10" s="2" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="23" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C4" s="24">
         <v>1468</v>
       </c>
       <c r="D4" s="24" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E4" s="24" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F4" s="25">
         <v>83.351498637602177</v>
@@ -1997,19 +2003,19 @@
     </row>
     <row r="5" spans="1:10" s="2" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="20" t="s">
         <v>33</v>
-      </c>
-      <c r="B5" s="20" t="s">
-        <v>36</v>
       </c>
       <c r="C5" s="20">
         <v>2283</v>
       </c>
       <c r="D5" s="20" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E5" s="20" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F5" s="21">
         <v>83.274200613228203</v>
@@ -2029,19 +2035,19 @@
     </row>
     <row r="6" spans="1:10" s="2" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="31" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B6" s="32" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C6" s="32">
         <v>962</v>
       </c>
       <c r="D6" s="32" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E6" s="32" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F6" s="33">
         <v>83.839916839916839</v>
@@ -2106,16 +2112,16 @@
     <row r="1" spans="1:10" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4"/>
       <c r="B1" s="4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>3</v>
@@ -2135,19 +2141,19 @@
     </row>
     <row r="2" spans="1:10" s="2" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C2" s="9">
         <v>3999</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F2" s="17">
         <v>76.842710677669416</v>
@@ -2167,19 +2173,19 @@
     </row>
     <row r="3" spans="1:10" s="2" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="19" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C3" s="20">
         <v>2949</v>
       </c>
       <c r="D3" s="20" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E3" s="20" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F3" s="21">
         <v>76.711766700576462</v>
@@ -2199,19 +2205,19 @@
     </row>
     <row r="4" spans="1:10" s="2" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="23" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C4" s="24">
         <v>2917</v>
       </c>
       <c r="D4" s="24" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E4" s="24" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F4" s="25">
         <v>76.629413781282139</v>
@@ -2231,19 +2237,19 @@
     </row>
     <row r="5" spans="1:10" s="2" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="19" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C5" s="20">
         <v>4635</v>
       </c>
       <c r="D5" s="20" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E5" s="20" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F5" s="21">
         <v>77.289751887810141</v>
@@ -2263,19 +2269,19 @@
     </row>
     <row r="6" spans="1:10" s="2" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="31" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B6" s="32" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C6" s="32">
         <v>4761</v>
       </c>
       <c r="D6" s="32" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E6" s="32" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F6" s="33">
         <v>77.072463768115938</v>
@@ -2333,271 +2339,271 @@
     <row r="1" spans="1:5" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4"/>
       <c r="B1" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>74</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:5" s="2" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:5" s="2" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="19" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D3" s="20" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E3" s="35" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:5" s="2" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="23" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C4" s="24" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D4" s="24" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E4" s="36" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:5" s="2" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="19" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D5" s="20" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E5" s="35" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="6" spans="1:5" s="2" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="23" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C6" s="24" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D6" s="24" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E6" s="36" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7" spans="1:5" s="2" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="19" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C7" s="20" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D7" s="20" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E7" s="35" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:5" s="2" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="23" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B8" s="24" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C8" s="24" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D8" s="24" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="E8" s="36" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="9" spans="1:5" s="2" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="19" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C9" s="20" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D9" s="20" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E9" s="35" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="10" spans="1:5" s="2" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="23" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B10" s="24" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C10" s="24" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D10" s="24" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E10" s="36" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="11" spans="1:5" s="2" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="19" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C11" s="20" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D11" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="E11" s="35" t="s">
         <v>104</v>
-      </c>
-      <c r="E11" s="35" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="12" spans="1:5" s="2" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="23" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B12" s="24" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C12" s="24" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D12" s="24" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E12" s="36" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="13" spans="1:5" s="2" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="19" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C13" s="20" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D13" s="20" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E13" s="35" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="14" spans="1:5" s="2" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="27" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B14" s="28" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C14" s="28" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D14" s="28" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E14" s="37" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="15" spans="1:5" s="2" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="19" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B15" s="20" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C15" s="20" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D15" s="20" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E15" s="35" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="16" spans="1:5" s="2" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="31" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B16" s="32" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C16" s="32" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D16" s="32" t="s">
+        <v>80</v>
+      </c>
+      <c r="E16" s="38" t="s">
         <v>83</v>
-      </c>
-      <c r="E16" s="38" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="17" s="2" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2630,271 +2636,271 @@
     <row r="1" spans="1:5" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4"/>
       <c r="B1" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>74</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:5" s="2" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B2" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="C2" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="C2" s="9" t="s">
-        <v>112</v>
-      </c>
       <c r="D2" s="9" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="3" spans="1:5" s="2" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="19" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D3" s="20" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E3" s="35" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="4" spans="1:5" s="2" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="23" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C4" s="24" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D4" s="24" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E4" s="36" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="5" spans="1:5" s="2" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="19" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D5" s="20" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="E5" s="35" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="6" spans="1:5" s="2" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="23" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C6" s="24" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D6" s="24" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="E6" s="36" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="7" spans="1:5" s="2" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="19" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B7" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="D7" s="20" t="s">
         <v>112</v>
       </c>
-      <c r="C7" s="20" t="s">
-        <v>116</v>
-      </c>
-      <c r="D7" s="20" t="s">
-        <v>115</v>
-      </c>
       <c r="E7" s="35" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="8" spans="1:5" s="2" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="23" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B8" s="24" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C8" s="24" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D8" s="24" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E8" s="36" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="9" spans="1:5" s="2" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="19" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C9" s="20" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D9" s="20" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="E9" s="35" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="10" spans="1:5" s="2" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="23" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B10" s="24" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C10" s="24" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D10" s="24" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E10" s="36" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="11" spans="1:5" s="2" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="19" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B11" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="C11" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="C11" s="20" t="s">
-        <v>86</v>
-      </c>
       <c r="D11" s="20" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="E11" s="35" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="12" spans="1:5" s="2" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="23" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B12" s="24" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C12" s="24" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D12" s="24" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E12" s="36" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="13" spans="1:5" s="2" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="19" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C13" s="20" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D13" s="20" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E13" s="35" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="14" spans="1:5" s="2" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="27" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B14" s="28" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C14" s="28" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D14" s="28" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E14" s="37" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="15" spans="1:5" s="2" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="19" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B15" s="20" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C15" s="20" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D15" s="20" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E15" s="35" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="16" spans="1:5" s="2" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="31" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B16" s="32" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C16" s="32" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D16" s="32" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E16" s="38" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="17" s="2" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2926,7 +2932,7 @@
   <sheetData>
     <row r="1" spans="1:6" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>3</v>
@@ -2946,79 +2952,79 @@
     </row>
     <row r="2" spans="1:6" s="2" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>126</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
     </row>
     <row r="3" spans="1:6" s="2" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="19" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B3" s="20" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D3" s="20" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E3" s="20" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="F3" s="35" t="s">
-        <v>132</v>
+        <v>112</v>
       </c>
     </row>
     <row r="4" spans="1:6" s="2" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="27" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B4" s="28" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C4" s="28" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D4" s="28" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="E4" s="28" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
       <c r="F4" s="37" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="5" spans="1:6" s="2" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F5" s="13" t="s">
         <v>135</v>
@@ -3064,7 +3070,7 @@
   <sheetData>
     <row r="1" spans="1:6" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>3</v>
@@ -3084,39 +3090,39 @@
     </row>
     <row r="2" spans="1:6" s="2" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>136</v>
       </c>
       <c r="E2" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="F2" s="10" t="s">
         <v>138</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="3" spans="1:6" s="2" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="27" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B3" s="28" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C3" s="28" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D3" s="28" t="s">
         <v>136</v>
       </c>
       <c r="E3" s="28" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="F3" s="37" t="s">
         <v>140</v>
@@ -3124,22 +3130,22 @@
     </row>
     <row r="4" spans="1:6" s="2" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="31" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B4" s="32" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C4" s="32" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D4" s="32" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="E4" s="32" t="s">
-        <v>139</v>
+        <v>99</v>
       </c>
       <c r="F4" s="38" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="5" spans="1:6" s="2" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -3183,7 +3189,7 @@
   <sheetData>
     <row r="1" spans="1:6" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>3</v>
@@ -3203,42 +3209,42 @@
     </row>
     <row r="2" spans="1:6" s="2" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="40" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B2" s="41" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C2" s="41" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D2" s="41" t="s">
         <v>136</v>
       </c>
       <c r="E2" s="41" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="F2" s="42" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
     </row>
     <row r="3" spans="1:6" s="2" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
       <c r="F3" s="13" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
     </row>
     <row r="4" spans="1:6" s="2" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
